--- a/DSSExcelTests/test-files/small-r-ts.xlsx
+++ b/DSSExcelTests/test-files/small-r-ts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DSSExcelPlugin\DSSExcelTests\test-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F0D4BC-DD30-45C2-8690-9E003F60FDCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CBCE05-EBD5-4330-A5BF-0AB47F780EF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="75" yWindow="60" windowWidth="15330" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>A</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>01Jun2020  0115</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -411,13 +420,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -473,22 +485,22 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
+      <c r="A8" t="s">
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -496,10 +508,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -507,10 +519,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -518,10 +530,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -529,10 +541,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -540,10 +552,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -551,10 +563,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -562,10 +574,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -573,12 +585,23 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>10</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>0</v>
       </c>
     </row>
